--- a/test/test_履歴.xlsx
+++ b/test/test_履歴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shinshuuniversity-my.sharepoint.com/personal/20t5057a_shinshu-u_ac_jp/Documents/遠藤研/Python/oma_GUI/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{291F797D-B4A6-4080-9610-75CBC1B05DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{291F797D-B4A6-4080-9610-75CBC1B05DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67CCE09B-247D-470A-BBCA-E286E1D8C1B2}"/>
   <bookViews>
     <workbookView xWindow="33120" yWindow="945" windowWidth="19185" windowHeight="10065" xr2:uid="{7C1012E2-731B-4676-BF03-C7B49B838D22}"/>
   </bookViews>
@@ -103,90 +103,118 @@
     <t>ssidat_validation_all</t>
   </si>
   <si>
-    <t>まれに違うモードもあったが、周波数の中央値を取る際に、中央値の上の値か下の値どちらかを選んだかが違うためだと思われる。
+    <t>比較のため、v0.23のコードを一部変えて、クラスターを代表する極を減衰比ではなく、周波数から中央値を取るようにした。（参照：main\oma_GUI_test.py）
+まれに違うモードもあったが、周波数の中央値を取る際に、中央値の上の値か下の値どちらかを選んだかが違うためだと思われる。
 周波数が同じモードについては、値が等しく、周波数が違う（中央値で上の値か下の値かが違った）場合は値が異なっていた。</t>
-    <rPh sb="3" eb="4">
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>イチブカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダイヒョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>キョク</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ゲンスイヒ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>シュウハスウ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>チュウオウチ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
       <t>チガ</t>
     </rPh>
-    <rPh sb="14" eb="17">
+    <rPh sb="100" eb="103">
       <t>シュウハスウ</t>
     </rPh>
-    <rPh sb="18" eb="21">
+    <rPh sb="104" eb="107">
       <t>チュウオウチ</t>
     </rPh>
-    <rPh sb="22" eb="23">
+    <rPh sb="108" eb="109">
       <t>ト</t>
     </rPh>
-    <rPh sb="24" eb="25">
+    <rPh sb="110" eb="111">
       <t>サイ</t>
     </rPh>
-    <rPh sb="27" eb="30">
+    <rPh sb="113" eb="116">
       <t>チュウオウチ</t>
     </rPh>
-    <rPh sb="31" eb="32">
+    <rPh sb="117" eb="118">
       <t>ウエ</t>
     </rPh>
-    <rPh sb="33" eb="34">
+    <rPh sb="119" eb="120">
       <t>アタイ</t>
     </rPh>
-    <rPh sb="35" eb="36">
+    <rPh sb="121" eb="122">
       <t>シタ</t>
     </rPh>
-    <rPh sb="37" eb="38">
+    <rPh sb="123" eb="124">
       <t>アタイ</t>
     </rPh>
-    <rPh sb="43" eb="44">
+    <rPh sb="129" eb="130">
       <t>エラ</t>
     </rPh>
-    <rPh sb="48" eb="49">
+    <rPh sb="134" eb="135">
       <t>チガ</t>
     </rPh>
-    <rPh sb="54" eb="55">
+    <rPh sb="140" eb="141">
       <t>オモ</t>
     </rPh>
-    <rPh sb="60" eb="63">
+    <rPh sb="146" eb="149">
       <t>シュウハスウ</t>
     </rPh>
-    <rPh sb="64" eb="65">
+    <rPh sb="150" eb="151">
       <t>オナ</t>
     </rPh>
-    <rPh sb="75" eb="76">
+    <rPh sb="161" eb="162">
       <t>アタイ</t>
     </rPh>
-    <rPh sb="77" eb="78">
+    <rPh sb="163" eb="164">
       <t>ヒト</t>
     </rPh>
-    <rPh sb="81" eb="84">
+    <rPh sb="167" eb="170">
       <t>シュウハスウ</t>
     </rPh>
-    <rPh sb="85" eb="86">
+    <rPh sb="171" eb="172">
       <t>チガ</t>
     </rPh>
-    <rPh sb="88" eb="91">
+    <rPh sb="174" eb="177">
       <t>チュウオウチ</t>
     </rPh>
-    <rPh sb="92" eb="93">
+    <rPh sb="178" eb="179">
       <t>ウエ</t>
     </rPh>
-    <rPh sb="94" eb="95">
+    <rPh sb="180" eb="181">
       <t>アタイ</t>
     </rPh>
-    <rPh sb="96" eb="97">
+    <rPh sb="182" eb="183">
       <t>シタ</t>
     </rPh>
-    <rPh sb="98" eb="99">
+    <rPh sb="184" eb="185">
       <t>アタイ</t>
     </rPh>
-    <rPh sb="101" eb="102">
+    <rPh sb="187" eb="188">
       <t>チガ</t>
     </rPh>
-    <rPh sb="105" eb="107">
+    <rPh sb="191" eb="193">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="108" eb="109">
+    <rPh sb="194" eb="195">
       <t>アタイ</t>
     </rPh>
-    <rPh sb="110" eb="111">
+    <rPh sb="196" eb="197">
       <t>コト</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -562,7 +590,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -627,7 +655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" t="s">
         <v>12</v>
       </c>

--- a/test/test_履歴.xlsx
+++ b/test/test_履歴.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shinshuuniversity-my.sharepoint.com/personal/20t5057a_shinshu-u_ac_jp/Documents/遠藤研/Python/oma_GUI/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{291F797D-B4A6-4080-9610-75CBC1B05DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67CCE09B-247D-470A-BBCA-E286E1D8C1B2}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{291F797D-B4A6-4080-9610-75CBC1B05DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{048865EC-FEDE-4B42-90F0-DBDF0A41AC81}"/>
   <bookViews>
-    <workbookView xWindow="33120" yWindow="945" windowWidth="19185" windowHeight="10065" xr2:uid="{7C1012E2-731B-4676-BF03-C7B49B838D22}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7C1012E2-731B-4676-BF03-C7B49B838D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -59,13 +59,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>正誤</t>
-    <rPh sb="0" eb="2">
-      <t>セイゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -85,13 +78,6 @@
   </si>
   <si>
     <t>Hclus_all</t>
-  </si>
-  <si>
-    <t>正</t>
-    <rPh sb="0" eb="1">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SSIdat_freq-damp_all</t>
@@ -216,6 +202,35 @@
     </rPh>
     <rPh sb="196" eb="197">
       <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oma_gui_v0.27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>find_n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>find_n_.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一致</t>
+    <rPh sb="0" eb="2">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値の一致</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イッチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -587,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E93668E-DAFF-4630-A1E3-F79AF1563D93}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -613,13 +628,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -627,43 +642,60 @@
         <v>45932</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="C6" t="s">
         <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
